--- a/clustering/two_step/second_step/results/descriptive_stat/raw/statistics_cluster_XS.xlsx
+++ b/clustering/two_step/second_step/results/descriptive_stat/raw/statistics_cluster_XS.xlsx
@@ -441,13 +441,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>774</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -455,13 +455,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>198.1673908565733</v>
+        <v>63.60396907097613</v>
       </c>
       <c r="C3">
-        <v>111.7577036514618</v>
+        <v>111.4965725775163</v>
       </c>
       <c r="D3">
-        <v>62.61000327477541</v>
+        <v>197.7435679720032</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -469,13 +469,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>3.04569818495979</v>
+        <v>0.4360114575234382</v>
       </c>
       <c r="C4">
         <v>2.63591590122718</v>
       </c>
       <c r="D4">
-        <v>0.4360114575234382</v>
+        <v>3.04569818495979</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -483,13 +483,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>32.22544265888907</v>
+        <v>18.41938384741085</v>
       </c>
       <c r="C5">
-        <v>11.47062722234897</v>
+        <v>11.48516471854108</v>
       </c>
       <c r="D5">
-        <v>19.81692255567214</v>
+        <v>32.3159786898492</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -497,13 +497,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>60.74392108355169</v>
+        <v>33.94052396205762</v>
       </c>
       <c r="C6">
-        <v>19.46720898462943</v>
+        <v>19.52397939040284</v>
       </c>
       <c r="D6">
-        <v>33.4055433702564</v>
+        <v>60.43004763211837</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -511,13 +511,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>113.5493078094944</v>
+        <v>62.37886087711595</v>
       </c>
       <c r="C7">
-        <v>56.95321459149801</v>
+        <v>56.85127862264329</v>
       </c>
       <c r="D7">
-        <v>62.3061811198051</v>
+        <v>113.1305659433516</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -525,13 +525,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>255.7461235373063</v>
+        <v>95.34833347063031</v>
       </c>
       <c r="C8">
-        <v>150.4952200787138</v>
+        <v>149.0499927797666</v>
       </c>
       <c r="D8">
-        <v>94.73580282039732</v>
+        <v>255.7088970856348</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -539,13 +539,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>8700.31031846173</v>
+        <v>332.5679877127166</v>
       </c>
       <c r="C9">
         <v>2135.698332197202</v>
       </c>
       <c r="D9">
-        <v>332.5679877127166</v>
+        <v>8700.31031846173</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -553,13 +553,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>427.6944580394912</v>
+        <v>59.91390164784217</v>
       </c>
       <c r="C10">
-        <v>226.7049418187653</v>
+        <v>226.4215250343809</v>
       </c>
       <c r="D10">
-        <v>59.29045630331674</v>
+        <v>427.2237082721369</v>
       </c>
     </row>
   </sheetData>
@@ -591,13 +591,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>774</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -605,13 +605,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1812.629939524812</v>
+        <v>1.405027138368082</v>
       </c>
       <c r="C3">
-        <v>2027.771153504609</v>
+        <v>2021.807120700184</v>
       </c>
       <c r="D3">
-        <v>1.43499780589625</v>
+        <v>1807.967545503918</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -633,13 +633,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>703.8343170166016</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1988.646437655872</v>
+        <v>1987.175720015817</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>695.0551528930664</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -647,13 +647,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>2092.938146972656</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2109.225494384766</v>
+        <v>2106.275010639917</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2088.384790860692</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -661,13 +661,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>2344.125486755371</v>
+        <v>0.7696383389559657</v>
       </c>
       <c r="C7">
-        <v>2333.234170532226</v>
+        <v>2333.049725341797</v>
       </c>
       <c r="D7">
-        <v>0.7685546875</v>
+        <v>2344.02709197998</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -675,13 +675,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>2416.323127746582</v>
+        <v>1.761891174316399</v>
       </c>
       <c r="C8">
-        <v>2396.388450603723</v>
+        <v>2396.368343343854</v>
       </c>
       <c r="D8">
-        <v>1.804481506347642</v>
+        <v>2415.934425354004</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -689,13 +689,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>2993.911972045898</v>
+        <v>13.11325073242188</v>
       </c>
       <c r="C9">
         <v>2572.785453796387</v>
       </c>
       <c r="D9">
-        <v>13.11325073242188</v>
+        <v>2993.911972045898</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -703,13 +703,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>840.3787808433391</v>
+        <v>2.658513785798865</v>
       </c>
       <c r="C10">
-        <v>645.8375044655503</v>
+        <v>654.1936826592837</v>
       </c>
       <c r="D10">
-        <v>2.689787329785625</v>
+        <v>844.2969930882907</v>
       </c>
     </row>
   </sheetData>
@@ -741,13 +741,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>774</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -755,13 +755,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>4.066127128071255</v>
+        <v>2.742757116045271</v>
       </c>
       <c r="C3">
-        <v>4.017888915925603</v>
+        <v>4.014353253560908</v>
       </c>
       <c r="D3">
-        <v>2.757897155119641</v>
+        <v>4.064592846275604</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -769,13 +769,13 @@
         <v>5</v>
       </c>
       <c r="B4">
+        <v>2.189579248428345</v>
+      </c>
+      <c r="C4">
+        <v>2.815763711929321</v>
+      </c>
+      <c r="D4">
         <v>3.075571537017822</v>
-      </c>
-      <c r="C4">
-        <v>3.004918813705444</v>
-      </c>
-      <c r="D4">
-        <v>2.189579248428345</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -783,13 +783,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>3.742267417907715</v>
+        <v>2.389685773849487</v>
       </c>
       <c r="C5">
-        <v>3.796196222305298</v>
+        <v>3.787718677520752</v>
       </c>
       <c r="D5">
-        <v>2.39078426361084</v>
+        <v>3.741900444030762</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -797,13 +797,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>3.979232454299927</v>
+        <v>2.6560471534729</v>
       </c>
       <c r="C6">
-        <v>3.971381092071534</v>
+        <v>3.970241308212281</v>
       </c>
       <c r="D6">
-        <v>2.707217454910278</v>
+        <v>3.97856879234314</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -811,13 +811,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>4.164700317382812</v>
+        <v>2.929817724227905</v>
       </c>
       <c r="C7">
-        <v>4.115804100036621</v>
+        <v>4.114287567138672</v>
       </c>
       <c r="D7">
-        <v>2.932530164718628</v>
+        <v>4.16349983215332</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -825,13 +825,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>4.353954982757569</v>
+        <v>3.014224576950074</v>
       </c>
       <c r="C8">
-        <v>4.274016475677491</v>
+        <v>4.272682952880859</v>
       </c>
       <c r="D8">
-        <v>3.017235517501831</v>
+        <v>4.352383136749268</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -839,13 +839,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>5.244965553283691</v>
+        <v>3.122062683105469</v>
       </c>
       <c r="C9">
         <v>4.909358978271484</v>
       </c>
       <c r="D9">
-        <v>3.506776571273804</v>
+        <v>5.244965553283691</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -853,13 +853,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.3810310788771673</v>
+        <v>0.2899924702107221</v>
       </c>
       <c r="C10">
-        <v>0.3232225029313652</v>
+        <v>0.32926420384202</v>
       </c>
       <c r="D10">
-        <v>0.3033514125992486</v>
+        <v>0.3817401338243303</v>
       </c>
     </row>
   </sheetData>
@@ -891,13 +891,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>774</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -905,13 +905,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1.587506420698585</v>
+        <v>11.33291258130755</v>
       </c>
       <c r="C3">
-        <v>1.669502390169464</v>
+        <v>1.676117529237972</v>
       </c>
       <c r="D3">
-        <v>11.12401606304811</v>
+        <v>1.594989058436807</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -919,13 +919,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>1.114041447639465</v>
+        <v>3.85997200012207</v>
       </c>
       <c r="C4">
         <v>1.120787024497986</v>
       </c>
       <c r="D4">
-        <v>3.85997200012207</v>
+        <v>1.114041447639465</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -933,13 +933,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1.281182861328125</v>
+        <v>6.31880407333374</v>
       </c>
       <c r="C5">
-        <v>1.360016202926636</v>
+        <v>1.360777187347412</v>
       </c>
       <c r="D5">
-        <v>6.299272060394287</v>
+        <v>1.281354188919067</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -947,13 +947,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1.392230629920959</v>
+        <v>7.5354154586792</v>
       </c>
       <c r="C6">
-        <v>1.459435105323792</v>
+        <v>1.459532856941223</v>
       </c>
       <c r="D6">
-        <v>7.417542457580566</v>
+        <v>1.392962574958801</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -961,13 +961,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1.487731456756592</v>
+        <v>10.10375461578369</v>
       </c>
       <c r="C7">
-        <v>1.52618715763092</v>
+        <v>1.526312923431397</v>
       </c>
       <c r="D7">
-        <v>9.929949760437012</v>
+        <v>1.488487720489502</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -975,13 +975,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1.813537883758545</v>
+        <v>12.37049465179443</v>
       </c>
       <c r="C8">
-        <v>1.952267909049988</v>
+        <v>1.954555296897888</v>
       </c>
       <c r="D8">
-        <v>12.32687664031982</v>
+        <v>1.818056225776672</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -989,13 +989,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>4.442986965179443</v>
+        <v>86.43142700195312</v>
       </c>
       <c r="C9">
         <v>4.961101531982422</v>
       </c>
       <c r="D9">
-        <v>86.43142700195312</v>
+        <v>4.655436992645264</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1003,13 +1003,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.4580002891256355</v>
+        <v>10.0030601336917</v>
       </c>
       <c r="C10">
-        <v>0.5558313104082567</v>
+        <v>0.5682565576812142</v>
       </c>
       <c r="D10">
-        <v>9.924810080483468</v>
+        <v>0.4806130981567482</v>
       </c>
     </row>
   </sheetData>
@@ -1041,13 +1041,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>774</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1055,13 +1055,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>41.20236305038247</v>
+        <v>46.87961806066529</v>
       </c>
       <c r="C3">
-        <v>37.87516260449613</v>
+        <v>38.01660076541629</v>
       </c>
       <c r="D3">
-        <v>47.13497346098337</v>
+        <v>41.19986419238762</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1069,13 +1069,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.026024132398274</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1.026024132398274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1083,13 +1083,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>15.19901378206615</v>
+        <v>14.20352448494149</v>
       </c>
       <c r="C5">
-        <v>11.5011399836537</v>
+        <v>11.5107854297623</v>
       </c>
       <c r="D5">
-        <v>14.62983019521052</v>
+        <v>15.27217346069287</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1097,13 +1097,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>27.86185549879662</v>
+        <v>27.82075697361351</v>
       </c>
       <c r="C6">
-        <v>23.54675067685871</v>
+        <v>23.57820881046701</v>
       </c>
       <c r="D6">
-        <v>27.84885628722058</v>
+        <v>27.84946353748337</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1111,13 +1111,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>44.81113963663028</v>
+        <v>51.59013593919359</v>
       </c>
       <c r="C7">
-        <v>35.66679875424239</v>
+        <v>35.8404854899396</v>
       </c>
       <c r="D7">
-        <v>52.18294693978917</v>
+        <v>44.8941494715592</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1125,13 +1125,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>67.35187228745971</v>
+        <v>87.20008420430462</v>
       </c>
       <c r="C8">
-        <v>70.66638253956704</v>
+        <v>71.76476107502953</v>
       </c>
       <c r="D8">
-        <v>87.09447737265505</v>
+        <v>67.30731984799455</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1139,13 +1139,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>99.65061263500832</v>
       </c>
       <c r="C9">
         <v>99.98568528435828</v>
       </c>
       <c r="D9">
-        <v>99.65061263500832</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1153,13 +1153,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>27.71427932226655</v>
+        <v>32.78624751089223</v>
       </c>
       <c r="C10">
-        <v>29.29769630772353</v>
+        <v>29.37047164088757</v>
       </c>
       <c r="D10">
-        <v>32.71573781724299</v>
+        <v>27.70541558728009</v>
       </c>
     </row>
   </sheetData>
@@ -1191,13 +1191,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>774</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1205,13 +1205,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>3170.242671358333</v>
+        <v>2539.192578466421</v>
       </c>
       <c r="C3">
-        <v>3485.643837017941</v>
+        <v>3482.918797239668</v>
       </c>
       <c r="D3">
-        <v>2544.333148972044</v>
+        <v>3169.259629736355</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1219,13 +1219,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>105.3524038092118</v>
+        <v>1575.828619069661</v>
       </c>
       <c r="C4">
         <v>71.65544657698662</v>
       </c>
       <c r="D4">
-        <v>1575.828619069661</v>
+        <v>105.3524038092118</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1233,13 +1233,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>2245.000677640512</v>
+        <v>2073.002432737073</v>
       </c>
       <c r="C5">
-        <v>2677.95445901943</v>
+        <v>2670.974118524308</v>
       </c>
       <c r="D5">
-        <v>2078.172128716906</v>
+        <v>2248.581774335968</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1247,13 +1247,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>3003.207903042312</v>
+        <v>2347.763623411088</v>
       </c>
       <c r="C6">
-        <v>3186.55507955992</v>
+        <v>3185.292599793948</v>
       </c>
       <c r="D6">
-        <v>2362.007927236064</v>
+        <v>3001.956793691037</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1261,13 +1261,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>3517.662591746867</v>
+        <v>2634.205230748748</v>
       </c>
       <c r="C7">
-        <v>3850.502079720343</v>
+        <v>3847.322720137739</v>
       </c>
       <c r="D7">
-        <v>2636.270479878866</v>
+        <v>3507.530137147496</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1275,13 +1275,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>4060.966265049387</v>
+        <v>2956.396432983841</v>
       </c>
       <c r="C8">
-        <v>4404.389635830794</v>
+        <v>4403.10034986243</v>
       </c>
       <c r="D8">
-        <v>2951.118297774098</v>
+        <v>4060.630102389617</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1289,13 +1289,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>5435.818787069617</v>
+        <v>4025.382525124913</v>
       </c>
       <c r="C9">
         <v>5166.590646158458</v>
       </c>
       <c r="D9">
-        <v>4025.382525124913</v>
+        <v>5435.818787069617</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1303,13 +1303,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>1024.906528384897</v>
+        <v>516.7282918587553</v>
       </c>
       <c r="C10">
-        <v>946.5595696726035</v>
+        <v>946.4971267744564</v>
       </c>
       <c r="D10">
-        <v>510.2305553841072</v>
+        <v>1023.773286107246</v>
       </c>
     </row>
   </sheetData>
@@ -1341,13 +1341,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>774</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1355,13 +1355,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>152.5512336503372</v>
+        <v>353.0656914524722</v>
       </c>
       <c r="C3">
-        <v>70.6281917138767</v>
+        <v>71.46954056396221</v>
       </c>
       <c r="D3">
-        <v>347.0414602740448</v>
+        <v>152.2792754767452</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1369,13 +1369,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>1.445725345487784</v>
+        <v>3.319382756218706</v>
       </c>
       <c r="C4">
         <v>0.1650183725831132</v>
       </c>
       <c r="D4">
-        <v>3.319382756218706</v>
+        <v>1.445725345487784</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1383,13 +1383,13 @@
         <v>6</v>
       </c>
       <c r="B5">
+        <v>140.1392015774097</v>
+      </c>
+      <c r="C5">
+        <v>10.26061293478352</v>
+      </c>
+      <c r="D5">
         <v>38.23868101840767</v>
-      </c>
-      <c r="C5">
-        <v>10.22337736631418</v>
-      </c>
-      <c r="D5">
-        <v>134.2808281106898</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1397,13 +1397,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>79.57879250441601</v>
+        <v>222.6302868606859</v>
       </c>
       <c r="C6">
-        <v>23.10345909459499</v>
+        <v>23.10700104735233</v>
       </c>
       <c r="D6">
-        <v>220.1345227458404</v>
+        <v>78.64544656387598</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1411,13 +1411,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>147.2941162729271</v>
+        <v>388.5556047298937</v>
       </c>
       <c r="C7">
-        <v>60.36340332206776</v>
+        <v>61.2235142272518</v>
       </c>
       <c r="D7">
-        <v>373.2567631343784</v>
+        <v>146.4048484388395</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1425,13 +1425,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>247.9120339383411</v>
+        <v>584.0983279188791</v>
       </c>
       <c r="C8">
-        <v>115.0407751204223</v>
+        <v>116.455766513402</v>
       </c>
       <c r="D8">
-        <v>580.3409052154169</v>
+        <v>246.3699730097533</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1439,13 +1439,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>765.0604058703595</v>
+        <v>841.469164999205</v>
       </c>
       <c r="C9">
         <v>592.49912402551</v>
       </c>
       <c r="D9">
-        <v>841.469164999205</v>
+        <v>765.0604058703595</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1453,13 +1453,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>141.9152975979658</v>
+        <v>244.5166057881423</v>
       </c>
       <c r="C10">
-        <v>86.62649378127158</v>
+        <v>87.87882778350985</v>
       </c>
       <c r="D10">
-        <v>244.6088010394886</v>
+        <v>141.8341018198367</v>
       </c>
     </row>
   </sheetData>
@@ -1491,13 +1491,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>774</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1505,13 +1505,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.5690092806780563</v>
+        <v>0.3832655093975132</v>
       </c>
       <c r="C3">
-        <v>0.6334376889415381</v>
+        <v>0.6328198285138233</v>
       </c>
       <c r="D3">
-        <v>0.3887717185141161</v>
+        <v>0.5691955434926115</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1519,13 +1519,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.1692381885199186</v>
+        <v>0.2213784094949661</v>
       </c>
       <c r="C4">
         <v>0.1615792040682145</v>
       </c>
       <c r="D4">
-        <v>0.2213784094949661</v>
+        <v>0.1692381885199186</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1533,13 +1533,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.4284093397304121</v>
+        <v>0.3173010805630838</v>
       </c>
       <c r="C5">
-        <v>0.5028031019662301</v>
+        <v>0.5025273564180394</v>
       </c>
       <c r="D5">
-        <v>0.3177287844524982</v>
+        <v>0.4285235957812543</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1547,13 +1547,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.5272130212305572</v>
+        <v>0.3692503368633211</v>
       </c>
       <c r="C6">
-        <v>0.5763425220839744</v>
+        <v>0.5762805477939272</v>
       </c>
       <c r="D6">
-        <v>0.3796367786061734</v>
+        <v>0.5278266711035243</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1561,13 +1561,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.6044685959334495</v>
+        <v>0.3996817961367258</v>
       </c>
       <c r="C7">
-        <v>0.66133753329906</v>
+        <v>0.6585543500230301</v>
       </c>
       <c r="D7">
-        <v>0.4044659284661285</v>
+        <v>0.6047882087690319</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1575,13 +1575,13 @@
         <v>9</v>
       </c>
       <c r="B8">
+        <v>0.4513837393460936</v>
+      </c>
+      <c r="C8">
+        <v>0.7560428123127837</v>
+      </c>
+      <c r="D8">
         <v>0.7051147296940231</v>
-      </c>
-      <c r="C8">
-        <v>0.756389124044791</v>
-      </c>
-      <c r="D8">
-        <v>0.4543283063452945</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1589,13 +1589,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>1.38194105053389</v>
+        <v>0.5335856915673303</v>
       </c>
       <c r="C9">
         <v>1.63834005044413</v>
       </c>
       <c r="D9">
-        <v>0.7259177676882611</v>
+        <v>1.38194105053389</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1603,13 +1603,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.1740100229432184</v>
+        <v>0.06781492714794611</v>
       </c>
       <c r="C10">
-        <v>0.1849949206698762</v>
+        <v>0.1850728587018923</v>
       </c>
       <c r="D10">
-        <v>0.07694837293487856</v>
+        <v>0.1738771929291197</v>
       </c>
     </row>
   </sheetData>
@@ -1641,13 +1641,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>774</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1655,13 +1655,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1.814184382651502</v>
+        <v>7.196463454321386</v>
       </c>
       <c r="C3">
-        <v>0.5035262497341361</v>
+        <v>0.5587631190194967</v>
       </c>
       <c r="D3">
-        <v>7.182291348175803</v>
+        <v>1.810634868566708</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1669,13 +1669,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0776871306409352</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0776871306409352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1683,13 +1683,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2.422174852199917</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.334143139546662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1697,13 +1697,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>4.820065542471359</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.677222249151805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1711,13 +1711,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>6.291375484521017</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.287450789916188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1725,13 +1725,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>2.428818348357522</v>
+        <v>11.41379793664282</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>11.47523451358914</v>
+        <v>2.402142456917995</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1739,13 +1739,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>49.26435429014114</v>
+        <v>24.65646307434167</v>
       </c>
       <c r="C9">
         <v>27.72961155760533</v>
       </c>
       <c r="D9">
-        <v>24.65646307434167</v>
+        <v>49.26435429014114</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1753,13 +1753,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>4.673384827265289</v>
+        <v>5.828530040456345</v>
       </c>
       <c r="C10">
-        <v>2.356824828173582</v>
+        <v>2.564296382828081</v>
       </c>
       <c r="D10">
-        <v>5.94377468490897</v>
+        <v>4.667889440540445</v>
       </c>
     </row>
   </sheetData>
@@ -1791,13 +1791,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>774</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1805,13 +1805,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>186.4595607235142</v>
+        <v>43.4</v>
       </c>
       <c r="C3">
-        <v>10.6117994100295</v>
+        <v>14.92441176470588</v>
       </c>
       <c r="D3">
-        <v>56.73366336633664</v>
+        <v>185.9789948453608</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1819,13 +1819,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-3.552713678800502E-14</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>-1.4210854715202E-14</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-3.552713678800502E-14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1889,13 +1889,13 @@
         <v>10</v>
       </c>
       <c r="B9">
+        <v>2267</v>
+      </c>
+      <c r="C9">
+        <v>1476.9</v>
+      </c>
+      <c r="D9">
         <v>103215.4</v>
-      </c>
-      <c r="C9">
-        <v>803.5</v>
-      </c>
-      <c r="D9">
-        <v>2267</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1903,13 +1903,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>3732.11701922036</v>
+        <v>242.5694484463936</v>
       </c>
       <c r="C10">
-        <v>66.20162927262574</v>
+        <v>103.4082208519756</v>
       </c>
       <c r="D10">
-        <v>278.3560102736162</v>
+        <v>3727.310278199431</v>
       </c>
     </row>
   </sheetData>
@@ -1941,13 +1941,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>774</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1955,13 +1955,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>127279.0918367347</v>
       </c>
       <c r="C3">
-        <v>1345414.672566372</v>
+        <v>1341728.1</v>
       </c>
       <c r="D3">
-        <v>124409.2178217822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>173972.8</v>
+        <v>172395.8</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>373171.8</v>
+        <v>373171.4</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1084480</v>
+        <v>1083605</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2039,13 +2039,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>8545379</v>
       </c>
       <c r="C9">
         <v>77864992</v>
       </c>
       <c r="D9">
-        <v>8545379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2053,13 +2053,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>938342.4124218904</v>
       </c>
       <c r="C10">
-        <v>5585100.66616898</v>
+        <v>5577271.245781996</v>
       </c>
       <c r="D10">
-        <v>924337.616634654</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2091,13 +2091,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>774</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2105,13 +2105,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>24.75133044030716</v>
+        <v>8.829237451342625</v>
       </c>
       <c r="C3">
-        <v>25.79544456598364</v>
+        <v>25.74376239586591</v>
       </c>
       <c r="D3">
-        <v>8.867235225768964</v>
+        <v>24.71602028562227</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2119,13 +2119,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>6.174441655476869</v>
+        <v>3.877763112386049</v>
       </c>
       <c r="C4">
         <v>7.731743494669615</v>
       </c>
       <c r="D4">
-        <v>3.877763112386049</v>
+        <v>6.174441655476869</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2133,13 +2133,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>19.53564198811848</v>
+        <v>7.552574063185182</v>
       </c>
       <c r="C5">
-        <v>26.50487536503898</v>
+        <v>26.50006039937336</v>
       </c>
       <c r="D5">
-        <v>7.626581155868223</v>
+        <v>19.42671779171212</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2147,13 +2147,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>26.74366878351668</v>
+        <v>8.407784715351307</v>
       </c>
       <c r="C6">
         <v>26.80510012308758</v>
       </c>
       <c r="D6">
-        <v>8.417670428798147</v>
+        <v>26.74236297607422</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2161,13 +2161,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>27.42111539877045</v>
+        <v>9.323248259858156</v>
       </c>
       <c r="C7">
-        <v>27.39304925223053</v>
+        <v>27.39132581233071</v>
       </c>
       <c r="D7">
-        <v>9.326685431777832</v>
+        <v>27.41938556625331</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2175,13 +2175,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>27.61875966389972</v>
+        <v>10.20587929176547</v>
       </c>
       <c r="C8">
-        <v>27.58855872717639</v>
+        <v>27.58836740934421</v>
       </c>
       <c r="D8">
-        <v>10.25956408182782</v>
+        <v>27.61801656087238</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2189,13 +2189,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>29.18817202250165</v>
+        <v>12.79322961936902</v>
       </c>
       <c r="C9">
         <v>28.05612325636883</v>
       </c>
       <c r="D9">
-        <v>12.79322961936902</v>
+        <v>29.18817202250165</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2203,13 +2203,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>4.715357921560501</v>
+        <v>1.641091880195216</v>
       </c>
       <c r="C10">
-        <v>4.311456290086396</v>
+        <v>4.409305776480555</v>
       </c>
       <c r="D10">
-        <v>1.649145248968715</v>
+        <v>4.76037583315303</v>
       </c>
     </row>
   </sheetData>
@@ -2241,13 +2241,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>774</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2255,13 +2255,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>283.9334091572561</v>
+        <v>3295.606145901906</v>
       </c>
       <c r="C3">
-        <v>194.3607977306713</v>
+        <v>204.254817329236</v>
       </c>
       <c r="D3">
-        <v>3282.357938185146</v>
+        <v>289.6325782020445</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2269,13 +2269,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1756.328081766765</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1756.328081766765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2283,13 +2283,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2793.390896136947</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2784.271643502372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2297,13 +2297,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3155.557431177937</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3150.255912780762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2311,13 +2311,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>3467.87999420166</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3464.933624267578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2325,13 +2325,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>429.6244079589854</v>
+        <v>3763.661138916016</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3742.722373962401</v>
+        <v>438.3743133544922</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2339,13 +2339,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>4367.626708984375</v>
+        <v>5095.989067077637</v>
       </c>
       <c r="C9">
         <v>3677.741554260254</v>
       </c>
       <c r="D9">
-        <v>5095.989067077637</v>
+        <v>4367.626708984375</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2353,13 +2353,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>679.0299837675615</v>
+        <v>609.702613192316</v>
       </c>
       <c r="C10">
-        <v>671.9338728314971</v>
+        <v>695.3031263530609</v>
       </c>
       <c r="D10">
-        <v>611.8098295768318</v>
+        <v>687.4079519522016</v>
       </c>
     </row>
   </sheetData>
